--- a/SKV Sheet-1.xlsx
+++ b/SKV Sheet-1.xlsx
@@ -1195,7 +1195,7 @@
         </is>
       </c>
       <c r="O13" t="n">
-        <v>388.85</v>
+        <v>387.95</v>
       </c>
       <c r="P13" t="inlineStr"/>
     </row>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="O14" t="n">
-        <v>388.85</v>
+        <v>387.95</v>
       </c>
       <c r="P14" t="inlineStr"/>
     </row>
@@ -1307,7 +1307,7 @@
         </is>
       </c>
       <c r="O15" t="n">
-        <v>388.85</v>
+        <v>387.95</v>
       </c>
       <c r="P15" t="inlineStr"/>
     </row>
@@ -1363,7 +1363,7 @@
         </is>
       </c>
       <c r="O16" t="n">
-        <v>388.85</v>
+        <v>387.95</v>
       </c>
       <c r="P16" t="inlineStr"/>
     </row>
@@ -1423,7 +1423,7 @@
         </is>
       </c>
       <c r="O17" t="n">
-        <v>388.85</v>
+        <v>387.95</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="O57" t="n">
-        <v>411.1</v>
+        <v>400.6</v>
       </c>
       <c r="P57" t="inlineStr"/>
     </row>
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="O85" t="n">
-        <v>387.15</v>
+        <v>384.55</v>
       </c>
       <c r="P85" t="inlineStr"/>
     </row>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="O86" t="n">
-        <v>387.15</v>
+        <v>384.55</v>
       </c>
       <c r="P86" t="inlineStr"/>
     </row>
@@ -5355,7 +5355,7 @@
         </is>
       </c>
       <c r="O87" t="n">
-        <v>387.15</v>
+        <v>384.55</v>
       </c>
       <c r="P87" t="inlineStr"/>
     </row>
@@ -5411,7 +5411,7 @@
         </is>
       </c>
       <c r="O88" t="n">
-        <v>1382.6</v>
+        <v>1377.1</v>
       </c>
       <c r="P88" t="inlineStr"/>
     </row>
